--- a/Planning/KW5_7_wegenSchweiz.xlsx
+++ b/Planning/KW5_7_wegenSchweiz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494049A8-F585-4BDB-AF3F-15A6ACE7A9F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBC83A-201A-40CF-BFAC-DFAA82FED29A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{61DA4AB6-AF33-49FE-A82B-E54090EAF8FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{61DA4AB6-AF33-49FE-A82B-E54090EAF8FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Data-base begin</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +466,12 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -474,6 +483,12 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -484,6 +499,12 @@
       </c>
       <c r="B4" t="s">
         <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
